--- a/PizzaHTest/src/main/java/com/pizzahut/qa/configuration/PizzaHutProject ManualTestCases.xlsx
+++ b/PizzaHTest/src/main/java/com/pizzahut/qa/configuration/PizzaHutProject ManualTestCases.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4784F712-83B6-4127-A572-EE303FEA8B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F00FD5F-82A7-449B-9DB9-AE7C1E58DF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="14832" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A4:E12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Project Name :</t>
   </si>
@@ -604,12 +605,39 @@
 Enter Customer details,press "Continue to payment" button.
 Payment Page should be seen.</t>
   </si>
+  <si>
+    <t>PH-0014</t>
+  </si>
+  <si>
+    <t>Login with valid credential</t>
+  </si>
+  <si>
+    <t>Existing Acount Member Sign In with Valid Credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch chrome browser.
+2.open Url "www.pizzahut.com" 
+3.HomePage of website should be available.
+4.Click on Sign in Button.
+5. Enter the valid email and passord to login.
+</t>
+  </si>
+  <si>
+    <t>email:shetabhakti@yahoo.com
+password:********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page should showup.
+Click on Sign in button. It should open sign in page.
+Enter the valide email and password to login into account
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,22 +1119,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5">
+    <row r="1" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1151,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5">
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1166,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="21.75">
+    <row r="3" spans="1:7" ht="21.6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1181,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5">
+    <row r="4" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
@@ -1166,7 +1194,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1175,7 +1203,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5">
+    <row r="6" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1216,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1197,7 +1225,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="19.5">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1238,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1219,7 +1247,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5">
+    <row r="10" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="94.5">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="126">
+    <row r="12" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="110.25">
+    <row r="13" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="141.75">
+    <row r="14" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="126">
+    <row r="15" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="126">
+    <row r="16" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="157.5">
+    <row r="17" spans="1:7" ht="156" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
@@ -1403,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="252">
+    <row r="18" spans="1:7" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="330.75">
+    <row r="19" spans="1:7" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -1449,7 +1477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="378">
+    <row r="20" spans="1:7" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -1472,7 +1500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="409.6">
+    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
@@ -1495,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="409.6">
+    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>83</v>
       </c>
@@ -1518,7 +1546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="409.6">
+    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>88</v>
       </c>
@@ -1541,7 +1569,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="5:5" ht="20.25">
+    <row r="24" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="E162" s="17"/>
     </row>
   </sheetData>
@@ -1565,7 +1616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
